--- a/extra bestanden/Bachelorproef_data_ping_4G-5G.xlsx
+++ b/extra bestanden/Bachelorproef_data_ping_4G-5G.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogent-my.sharepoint.com/personal/els_palmans_hogent_be/Documents/Documenten/Els/Jan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jande\Documents\AAA2024-2025\BPGit\extra bestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{357A2103-9099-44D2-8879-9F5A189A7888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B92BD4D-93DA-44F8-915E-249B1138294C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B699C4C9-98A4-4AC1-A6C9-A9606465DC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{857451A4-ABFC-4EF1-BFF0-A1AA1EF898DE}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="21120" windowHeight="10632" xr2:uid="{857451A4-ABFC-4EF1-BFF0-A1AA1EF898DE}"/>
   </bookViews>
   <sheets>
     <sheet name="ping_SUMMARY" sheetId="9" r:id="rId1"/>
@@ -28,23 +28,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8042" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8063" uniqueCount="293">
   <si>
     <t>ms</t>
   </si>
@@ -894,13 +883,43 @@
   <si>
     <t>Herhaling</t>
   </si>
+  <si>
+    <t>PING 26.05_1</t>
+  </si>
+  <si>
+    <t>250 packets transmitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 250 received</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0% packet loss</t>
+  </si>
+  <si>
+    <t>PING 26.05_2</t>
+  </si>
+  <si>
+    <t>PING 26.05_3</t>
+  </si>
+  <si>
+    <t>PING 26.05_4</t>
+  </si>
+  <si>
+    <t>WI-FI</t>
+  </si>
+  <si>
+    <t>opmerking: op 5g grote max latency</t>
+  </si>
+  <si>
+    <t>mdev bekijken</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -943,7 +962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -959,6 +978,1002 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Latency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ping_SUMMARY!$N$3:$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>WI-FI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4G</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ping_SUMMARY!$N$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13.266499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.16675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.303999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4577-47C4-B3FB-0AC235A87E73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="546793664"/>
+        <c:axId val="546802664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="546793664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>netwerk</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546802664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="546802664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546793664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFF63D76-8BCD-EC83-C3D2-C15289CF50CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1278,11 +2293,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB36D73-690C-4D1B-A04C-11F556EB1586}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -1291,7 +2308,7 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>271</v>
       </c>
@@ -1322,8 +2339,11 @@
       <c r="K1" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N1" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>272</v>
       </c>
@@ -1355,7 +2375,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>272</v>
       </c>
@@ -1386,8 +2406,17 @@
       <c r="K3" s="3">
         <v>0.50700000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>290</v>
+      </c>
+      <c r="O3" t="s">
+        <v>272</v>
+      </c>
+      <c r="P3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>272</v>
       </c>
@@ -1418,8 +2447,20 @@
       <c r="K4" s="3">
         <v>0.19900000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <f>(I2+I4+I3+I5)/4</f>
+        <v>13.266499999999999</v>
+      </c>
+      <c r="O4">
+        <f>(I11+I12+I13+I14)/4</f>
+        <v>18.16675</v>
+      </c>
+      <c r="P4">
+        <f>(I6+I7+I8+I9)/4</f>
+        <v>26.303999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>272</v>
       </c>
@@ -1451,7 +2492,7 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>273</v>
       </c>
@@ -1483,7 +2524,7 @@
         <v>23.593</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>273</v>
       </c>
@@ -1515,7 +2556,7 @@
         <v>16.896999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>273</v>
       </c>
@@ -1547,7 +2588,7 @@
         <v>31.48</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>273</v>
       </c>
@@ -1579,8 +2620,142 @@
         <v>30.989000000000001</v>
       </c>
     </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11">
+        <v>249398</v>
+      </c>
+      <c r="H11">
+        <v>15.635</v>
+      </c>
+      <c r="I11">
+        <v>18.120999999999999</v>
+      </c>
+      <c r="J11">
+        <v>32.988999999999997</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" t="s">
+        <v>286</v>
+      </c>
+      <c r="F12">
+        <v>249398</v>
+      </c>
+      <c r="H12">
+        <v>15.635</v>
+      </c>
+      <c r="I12">
+        <v>18.120999999999999</v>
+      </c>
+      <c r="J12">
+        <v>32.988999999999997</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13">
+        <v>249398</v>
+      </c>
+      <c r="H13">
+        <v>15.635</v>
+      </c>
+      <c r="I13">
+        <v>18.120999999999999</v>
+      </c>
+      <c r="J13">
+        <v>32.988999999999997</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E14" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14">
+        <v>249361</v>
+      </c>
+      <c r="H14">
+        <v>15.731</v>
+      </c>
+      <c r="I14">
+        <v>18.303999999999998</v>
+      </c>
+      <c r="J14">
+        <v>49.241</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3.3380000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1592,7 +2767,7 @@
       <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5869,7 +7044,7 @@
       <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -10146,7 +11321,7 @@
       <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -14423,7 +15598,7 @@
       <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -18700,7 +19875,7 @@
       <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -22974,10 +24149,10 @@
   <dimension ref="A1:G250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -27254,7 +28429,7 @@
       <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -31531,7 +32706,7 @@
       <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>

--- a/extra bestanden/Bachelorproef_data_ping_4G-5G.xlsx
+++ b/extra bestanden/Bachelorproef_data_ping_4G-5G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jande\Documents\AAA2024-2025\BPGit\extra bestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E696C91-AFDC-422B-8C78-1C0B9BBAA36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DF7D26-B77B-425A-AEF2-1F0D864EB6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="21120" windowHeight="10632" xr2:uid="{857451A4-ABFC-4EF1-BFF0-A1AA1EF898DE}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="21120" windowHeight="10632" xr2:uid="{857451A4-ABFC-4EF1-BFF0-A1AA1EF898DE}"/>
   </bookViews>
   <sheets>
     <sheet name="ping_SUMMARY" sheetId="9" r:id="rId1"/>
@@ -911,9 +911,6 @@
     <t>rtt min</t>
   </si>
   <si>
-    <t>WIFI</t>
-  </si>
-  <si>
     <t>rtt avg</t>
   </si>
   <si>
@@ -921,6 +918,9 @@
   </si>
   <si>
     <t>mdev</t>
+  </si>
+  <si>
+    <t>wifi</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1095,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>WIFI</c:v>
+                  <c:v>wifi</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4G</c:v>
@@ -1160,7 +1160,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>WIFI</c:v>
+                  <c:v>wifi</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4G</c:v>
@@ -1192,6 +1192,71 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B4F6-4857-9945-DCFCBF9C14CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ping_SUMMARY!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rtt max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ping_SUMMARY!$N$3:$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>wifi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4G</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ping_SUMMARY!$N$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18.051000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.051999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230.92149999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3356-4B43-8F37-0DF4F888451A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2416,8 +2481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB36D73-690C-4D1B-A04C-11F556EB1586}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M6" sqref="M3:P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2528,7 +2593,7 @@
         <v>0.50700000000000001</v>
       </c>
       <c r="N3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O3" t="s">
         <v>272</v>
@@ -2569,7 +2634,7 @@
         <v>0.19900000000000001</v>
       </c>
       <c r="M4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N4">
         <f>(I2+I4+I3+I5)/4</f>
@@ -2663,7 +2728,7 @@
         <v>23.593</v>
       </c>
       <c r="M6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N6">
         <f>(J5+J2+J3+J4)/4</f>
@@ -2710,7 +2775,7 @@
         <v>16.896999999999998</v>
       </c>
       <c r="M7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N7">
         <f>(K5+K2+K3+K4)/4</f>
